--- a/ExcelFiles/Ideology.xlsx
+++ b/ExcelFiles/Ideology.xlsx
@@ -1133,8 +1133,8 @@
   <sheetPr/>
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/ExcelFiles/Ideology.xlsx
+++ b/ExcelFiles/Ideology.xlsx
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
